--- a/Detailed Design/ClassSpecification_Nam.xlsx
+++ b/Detailed Design/ClassSpecification_Nam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\The Nam Le\Subjects\20201\TKXDPM\Capston Project\TKXDPM.KSTN.20201-08\Detailed Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{429478EE-7955-47C4-8BF9-A37857985CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287AFDB4-66C0-42C4-879E-517E4F9861BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{3BE219C6-E1EE-435B-BEC7-84EC89DA6D91}"/>
   </bookViews>
@@ -571,7 +571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,8 +584,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -593,12 +617,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -609,14 +648,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,7 +1033,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E26"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,97 +1046,97 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1074,89 +1170,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1198,6 +1294,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
@@ -1205,10 +1305,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1219,16 +1315,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D6302E-710C-4C94-B28E-9D6E265A9163}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1273,59 +1369,59 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -1352,6 +1448,7 @@
     <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1360,7 +1457,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,44 +1468,44 @@
     <col min="5" max="5" width="44.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1425,6 +1522,7 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1432,1827 +1530,1873 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DFD284-3185-42B8-A65A-E068AD91BFA5}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="59.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="27.77734375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="59.21875" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="23">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="23">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="23">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="23">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="23">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="23">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="10">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="10">
         <v>2</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="10">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="10">
         <v>4</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="10">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="10">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="10">
         <v>7</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="10">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="10">
         <v>9</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="10">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="10">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="10">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="10">
         <v>2</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="10">
         <v>3</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="10">
         <v>4</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="D47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="10">
         <v>5</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="23">
         <v>6</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="23">
         <v>7</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="23">
         <v>8</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="23">
         <v>9</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="23">
         <v>10</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="10">
+        <v>1</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="10">
         <v>2</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="10">
         <v>3</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="10">
         <v>4</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="10">
         <v>5</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="23"/>
+      <c r="B66" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+    </row>
+    <row r="67" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>1</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="10">
+        <v>1</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="10">
         <v>2</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="10">
         <v>3</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="10">
         <v>4</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="D72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="10">
         <v>5</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="D73" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="10">
         <v>6</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="10">
         <v>7</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="A76" s="23">
         <v>8</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="23">
         <v>9</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="A78" s="23">
         <v>10</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="23"/>
+      <c r="B85" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="C85" s="23"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+    </row>
+    <row r="86" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>1</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="A88" s="10">
+        <v>1</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="A89" s="10">
         <v>2</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+      <c r="A90" s="10">
         <v>3</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="29">
         <v>427</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="A91" s="10">
         <v>4</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="29">
         <v>1125</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="A92" s="23">
         <v>5</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="A93" s="23">
         <v>6</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="A94" s="23">
         <v>7</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="A95" s="23">
         <v>8</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="A96" s="23">
         <v>9</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+      <c r="A97" s="23">
         <v>10</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="23"/>
+      <c r="B102" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="C102" s="23"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+    </row>
+    <row r="103" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>1</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="A105" s="10">
+        <v>1</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="D105" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="A106" s="10">
         <v>2</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="1" t="s">
+      <c r="D106" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="A107" s="10">
         <v>3</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="1" t="s">
+      <c r="D107" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="A108" s="10">
         <v>4</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="D108" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="A109" s="10">
         <v>5</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="1" t="s">
+      <c r="D109" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="A110" s="10">
         <v>6</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="D110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="A111" s="10">
         <v>7</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="D111" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="A112" s="23">
         <v>8</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="A113" s="23">
         <v>9</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="A114" s="23">
         <v>10</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+    </row>
+    <row r="117" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+    </row>
+    <row r="118" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B118" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>1</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="A119" s="23">
+        <v>1</v>
+      </c>
+      <c r="B119" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="26"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1" t="s">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="C123" s="23"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+    </row>
+    <row r="124" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B125" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>1</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="A126" s="10">
+        <v>1</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="1" t="s">
+      <c r="D126" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="A127" s="10">
         <v>2</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="1" t="s">
+      <c r="D127" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+      <c r="A128" s="10">
         <v>3</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="D128" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="A129" s="10">
         <v>4</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="D129" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+      <c r="A130" s="10">
         <v>5</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="D130" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="A131" s="10">
         <v>6</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="D131" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+      <c r="A132" s="10">
         <v>7</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="1" t="s">
+      <c r="D132" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="A133" s="10">
         <v>8</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="1" t="s">
+      <c r="D133" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="A134" s="10">
         <v>9</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="1" t="s">
+      <c r="D134" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="A135" s="23">
         <v>10</v>
       </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+    </row>
+    <row r="138" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B139" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="2"/>
+      <c r="E139" s="11"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>1</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="A140" s="10">
+        <v>1</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E140" s="2"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="A141" s="10">
         <v>2</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E141" s="2"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="D145:E145"/>
     <mergeCell ref="D146:E146"/>
@@ -3263,50 +3407,6 @@
     <mergeCell ref="D141:E141"/>
     <mergeCell ref="D142:E142"/>
     <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3317,999 +3417,985 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5CBF0F-9BD0-47F9-92B3-0592861E268C}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="66.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="24.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="23">
+        <v>1</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="23">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="23">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="23">
         <v>2</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="23">
+        <v>1</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="23">
+        <v>1</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="23">
         <v>2</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="23">
         <v>3</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="5" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="C64" s="23"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+    </row>
+    <row r="66" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="23">
+        <v>1</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="30" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="25"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>1</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="23">
+        <v>1</v>
+      </c>
+      <c r="B81" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="26"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="A82" s="23">
         <v>2</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="26"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="23"/>
+      <c r="B84" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+    </row>
+    <row r="99" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="25"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>1</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="A101" s="23">
+        <v>1</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="26"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A56:E56"/>
@@ -4319,15 +4405,31 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E67" r:id="rId1" xr:uid="{81BBE830-7347-4528-A99F-8F7690203722}"/>
